--- a/Data/Okanogan_EDT/Level2_Data_Sources_Name_Crosswalk.xlsx
+++ b/Data/Okanogan_EDT/Level2_Data_Sources_Name_Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F825E-3749-436F-896B-D5348700FC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AA8E1-3EC8-459E-A0F3-E523B50C7D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="18192" windowHeight="9336" xr2:uid="{76FB0E2C-8A56-4536-9F8F-0C7BD23F09B7}"/>
+    <workbookView xWindow="30075" yWindow="1245" windowWidth="19620" windowHeight="11325" xr2:uid="{76FB0E2C-8A56-4536-9F8F-0C7BD23F09B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>EDT_Level_2_names</t>
   </si>
@@ -42,9 +42,6 @@
     <t>EDT_Level_2_habitat_attribute</t>
   </si>
   <si>
-    <t>EDT Level 2 Bed Scour Functional Condition</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -162,45 +159,9 @@
     <t xml:space="preserve">          </t>
   </si>
   <si>
-    <t>EDT Level 2 Benthic Richness Functional Condition</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>EDT Level 2 Confinement Artificial Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Embeddedness  Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Fine Sediment Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Flow: Inter-annual Low Flow Variation Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Flow: Inter-annual High Flow Variation Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Predation Risk Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Riparian/Stream Interface Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Temperature: Daily Maximum Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Temperature: Food Effect Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Woody Debris Functional Condition</t>
-  </si>
-  <si>
-    <t>EDT Level 2 Width Functional Condition</t>
-  </si>
-  <si>
     <t>Alkalinity</t>
   </si>
   <si>
@@ -262,6 +223,48 @@
   </si>
   <si>
     <t>Riparian/stream interface</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Bed scour</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Benthic Richness</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Confinement: Artificial</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Embeddedness</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Fine Sediment</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Flow: Inter-Annual Low Flow Variation</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Flow: Inter-Annual High Flow Variation</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Predation Risk</t>
+  </si>
+  <si>
+    <t>EDT_Level 2 Riparian/stream interface</t>
+  </si>
+  <si>
+    <t>EDT_Temperature: Daily Maximum</t>
+  </si>
+  <si>
+    <t>EDT_Temperature: Food Effect</t>
+  </si>
+  <si>
+    <t>EDT_Width</t>
+  </si>
+  <si>
+    <t>EDT_Woody Debris</t>
+  </si>
+  <si>
+    <t>EDT Level 2 Side Channel Functional Condition</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4B208-4104-443B-85D2-81A449338601}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,418 +647,418 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Okanogan_EDT/Level2_Data_Sources_Name_Crosswalk.xlsx
+++ b/Data/Okanogan_EDT/Level2_Data_Sources_Name_Crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AA8E1-3EC8-459E-A0F3-E523B50C7D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115334F-4767-460B-BF58-62D8DC8978E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="1245" windowWidth="19620" windowHeight="11325" xr2:uid="{76FB0E2C-8A56-4536-9F8F-0C7BD23F09B7}"/>
+    <workbookView xWindow="9600" yWindow="-15900" windowWidth="27960" windowHeight="15000" xr2:uid="{76FB0E2C-8A56-4536-9F8F-0C7BD23F09B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>EDT_Level_2_names</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Benthic Richness</t>
   </si>
   <si>
-    <t xml:space="preserve">                       </t>
-  </si>
-  <si>
     <t>Channel length</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Confinement: Artificial</t>
   </si>
   <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
     <t>Embeddedness</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Flow: Diel Variation</t>
   </si>
   <si>
-    <t xml:space="preserve">                   </t>
-  </si>
-  <si>
     <t>Flow: Inter-Annual High Flow Variation</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Flow: Intra-Annual Variation</t>
   </si>
   <si>
-    <t xml:space="preserve">           </t>
-  </si>
-  <si>
     <t>Gradient</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>Temperature: Spatial Variation</t>
   </si>
   <si>
-    <t xml:space="preserve">         </t>
-  </si>
-  <si>
     <t>Water Withdrawals</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Woody Debris</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -265,6 +247,9 @@
   </si>
   <si>
     <t>EDT Level 2 Side Channel Functional Condition</t>
+  </si>
+  <si>
+    <t>EDT_Level_2_names_updated</t>
   </si>
 </sst>
 </file>
@@ -628,88 +613,94 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -718,347 +709,446 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
+      <c r="C44" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
